--- a/Discharge/Station3_2021-07-14_1338.xlsx
+++ b/Discharge/Station3_2021-07-14_1338.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efarq\OneDrive\Documents\Ecuador2021\Ecuador2021\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{390809FE-2485-475A-AEFB-F15CC839E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{390809FE-2485-475A-AEFB-F15CC839E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A7C21CD-EBBF-41E4-8136-D6C6A718B861}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1070" windowWidth="14640" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -372,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +405,20 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -415,8 +433,24 @@
         <f>SUM(E2:E11)</f>
         <v>8.0300000000000024E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>8.0300000000000024E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>15</v>
       </c>
@@ -434,8 +468,12 @@
         <f>(D3-D2)*(B3/100)*C3</f>
         <v>1.1999999999999998E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>2.9999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
@@ -450,11 +488,15 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">(D4-D3)*(B4/100)*C4</f>
+        <f t="shared" ref="E4:E5" si="0">(D4-D3)*(B4/100)*C4</f>
         <v>1.7500000000000008E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="1">(D4-D3)*B4/100</f>
+        <v>3.5000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>25</v>
       </c>
@@ -472,8 +514,12 @@
         <f t="shared" si="0"/>
         <v>6.5000000000000021E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000023E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>30</v>
       </c>
@@ -491,8 +537,12 @@
         <f>(D6-D5)*(B6/100)*C6</f>
         <v>1.2599999999999983E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999872E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>35</v>
       </c>
@@ -503,15 +553,19 @@
         <v>0.22</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="1">(A7/100+(A8/100-A7/100)/2)</f>
+        <f t="shared" ref="D7:D10" si="2">(A7/100+(A8/100-A7/100)/2)</f>
         <v>0.375</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E10" si="2">(D7-D6)*(B7/100)*C7</f>
+        <f t="shared" ref="E7:E10" si="3">(D7-D6)*(B7/100)*C7</f>
         <v>2.090000000000002E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000084E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40</v>
       </c>
@@ -522,15 +576,19 @@
         <v>0.31</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42500000000000004</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4800000000000022E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>45</v>
       </c>
@@ -541,15 +599,19 @@
         <v>0.23</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3799999999999982E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -560,17 +622,49 @@
         <v>0.23</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6000000000000045E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>55</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
